--- a/analysis/xlsx/topic_network_b_analysis.xlsx
+++ b/analysis/xlsx/topic_network_b_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="13200" windowHeight="4440"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13200" windowHeight="4440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="284">
   <si>
     <t>Nodes</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>weighted by normalized number of common researchers</t>
+  </si>
+  <si>
+    <t>Latex format</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1171,11 +1174,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1305,6 +1319,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1334,6 +1355,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1776,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1824,26 +1848,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:9">
       <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1">
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1">
       <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1">
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1">
       <c r="B3" s="54" t="s">
         <v>40</v>
       </c>
@@ -1857,8 +1883,12 @@
         <v>25</v>
       </c>
       <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="H3" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1872,8 +1902,13 @@
         <v>225</v>
       </c>
       <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="H4" s="59" t="str">
+        <f>"\textbf{"&amp;B4&amp;"}"&amp;" &amp; "&amp;"{"&amp;C4&amp;"}"&amp;" &amp; "&amp;"{"&amp;E4&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Nodes} &amp; {225} &amp; {225}\\</v>
+      </c>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1887,8 +1922,13 @@
         <v>5192</v>
       </c>
       <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="H5" s="59" t="str">
+        <f t="shared" ref="H5:H22" si="0">"\textbf{"&amp;B5&amp;"}"&amp;" &amp; "&amp;"{"&amp;C5&amp;"}"&amp;" &amp; "&amp;"{"&amp;E5&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Edges} &amp; {5192} &amp; {5192}\\</v>
+      </c>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
@@ -1902,8 +1942,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="H6" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Type} &amp; {Undirected} &amp; {Undirected}\\</v>
+      </c>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +1962,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="H7" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Weighted} &amp; {No} &amp; {Yes}\\</v>
+      </c>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
@@ -1932,8 +1982,13 @@
         <v>21</v>
       </c>
       <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="H8" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Connected} &amp; {Yes} &amp; {Yes}\\</v>
+      </c>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="16" t="s">
         <v>5</v>
       </c>
@@ -1947,8 +2002,13 @@
         <v>46.151000000000003</v>
       </c>
       <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="H9" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Degree} &amp; {46.151} &amp; {46.151}\\</v>
+      </c>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="16" t="s">
         <v>6</v>
       </c>
@@ -1962,8 +2022,13 @@
         <v>52.436</v>
       </c>
       <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="H10" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Weighted Degree} &amp; {-} &amp; {52.436}\\</v>
+      </c>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
@@ -1977,8 +2042,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="H11" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Diameter} &amp; {4} &amp; {4}\\</v>
+      </c>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
@@ -1992,8 +2062,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="H12" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Radius} &amp; {2} &amp; {2}\\</v>
+      </c>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
@@ -2007,8 +2082,13 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="H13" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Density} &amp; {0.206} &amp; {0.206}\\</v>
+      </c>
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
@@ -2022,8 +2102,13 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="H14" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Modularity} &amp; {0.204} &amp; {0.234}\\</v>
+      </c>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="16" t="s">
         <v>11</v>
       </c>
@@ -2037,8 +2122,13 @@
         <v>4</v>
       </c>
       <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="H15" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Communities} &amp; {4} &amp; {4}\\</v>
+      </c>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="16" t="s">
         <v>12</v>
       </c>
@@ -2052,8 +2142,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Weak Components} &amp; {1} &amp; {1}\\</v>
+      </c>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
@@ -2067,8 +2162,13 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Node Closeness} &amp; {0.531} &amp; {0.522}\\</v>
+      </c>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
@@ -2082,8 +2182,13 @@
         <v>106.68600000000001</v>
       </c>
       <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H18" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Node Betweenness} &amp; {103.591} &amp; {106.686}\\</v>
+      </c>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
       <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
@@ -2097,8 +2202,13 @@
         <v>9.4770000000000003</v>
       </c>
       <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Edge Betweenness} &amp; {9.343} &amp; {9.477}\\</v>
+      </c>
+      <c r="I19" s="56"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" s="52" t="s">
         <v>16</v>
       </c>
@@ -2112,8 +2222,13 @@
         <v>0.71499999999999997</v>
       </c>
       <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H20" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Clustering Coefficient} &amp; {0.715} &amp; {0.715}\\</v>
+      </c>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="B21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2127,8 +2242,13 @@
         <v>0.28899999999999998</v>
       </c>
       <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Eigenvector Centrality} &amp; {0.363} &amp; {0.289}\\</v>
+      </c>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" s="52" t="s">
         <v>18</v>
       </c>
@@ -2142,21 +2262,30 @@
         <v>1.925</v>
       </c>
       <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Average Path Length} &amp; {1.925} &amp; {1.925}\\</v>
+      </c>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" s="31"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
       <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="26"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2166,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2177,33 +2306,40 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="74.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="B3" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="52" t="s">
         <v>26</v>
       </c>
@@ -2226,8 +2362,13 @@
         <v>1E-3</v>
       </c>
       <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="59" t="str">
+        <f>"\textbf"&amp;"{"&amp;B4&amp;"}"&amp;" &amp; "&amp;"{"&amp;C4&amp;"}"&amp;" &amp; "&amp;"{"&amp;D4&amp;"}"&amp;" &amp; "&amp;"{"&amp;G4&amp;"}"&amp;" &amp; "&amp;"{"&amp;H4&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Infomap} &amp; {2} &amp; {0.001} &amp; {2} &amp; {0.001}\\</v>
+      </c>
+      <c r="L4" s="56"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" s="16" t="s">
         <v>27</v>
       </c>
@@ -2250,8 +2391,13 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="59" t="str">
+        <f t="shared" ref="K5:K11" si="0">"\textbf"&amp;"{"&amp;B5&amp;"}"&amp;" &amp; "&amp;"{"&amp;C5&amp;"}"&amp;" &amp; "&amp;"{"&amp;D5&amp;"}"&amp;" &amp; "&amp;"{"&amp;G5&amp;"}"&amp;" &amp; "&amp;"{"&amp;H5&amp;"}"&amp;"\\"</f>
+        <v>\textbf{Spinglass} &amp; {5} &amp; {0.206} &amp; {5} &amp; {0.239}\\</v>
+      </c>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="16" t="s">
         <v>28</v>
       </c>
@@ -2274,8 +2420,13 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Louvain} &amp; {4} &amp; {0.204} &amp; {4} &amp; {0.234}\\</v>
+      </c>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
@@ -2298,8 +2449,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Label Propagation} &amp; {1} &amp; {0} &amp; {1} &amp; {0}\\</v>
+      </c>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
@@ -2322,8 +2478,13 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Leading Eigenvector} &amp; {3} &amp; {0.193} &amp; {2} &amp; {0.202}\\</v>
+      </c>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
@@ -2346,8 +2507,13 @@
         <v>0.186</v>
       </c>
       <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Walktrap} &amp; {13} &amp; {0.151} &amp; {15} &amp; {0.186}\\</v>
+      </c>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
@@ -2370,8 +2536,13 @@
         <v>0.218</v>
       </c>
       <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Fast Greedy} &amp; {3} &amp; {0.184} &amp; {3} &amp; {0.218}\\</v>
+      </c>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
@@ -2394,8 +2565,13 @@
         <v>2.4E-2</v>
       </c>
       <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>\textbf{Edge Betweenness} &amp; {174} &amp; {0.024} &amp; {176} &amp; {0.024}\\</v>
+      </c>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="31"/>
       <c r="C12" s="35"/>
       <c r="D12" s="36"/>
@@ -2404,8 +2580,9 @@
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
       <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="9"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
@@ -2415,8 +2592,11 @@
       <c r="G13" s="39"/>
       <c r="H13" s="40"/>
       <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="58"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="57"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="28"/>
       <c r="B14" s="31"/>
       <c r="C14" s="35"/>
@@ -2455,47 +2635,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:14">
       <c r="K1" s="25"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1">
+      <c r="N1" s="56"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1">
       <c r="K2" s="25"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1">
+      <c r="N2" s="56"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1">
       <c r="B3" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="2:13">
+      <c r="N3" s="56"/>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="52" t="s">
         <v>27</v>
       </c>
@@ -2520,8 +2704,9 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
       <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="N4" s="56"/>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
@@ -2546,8 +2731,9 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
       <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="2:13">
+      <c r="N5" s="56"/>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="16" t="s">
         <v>32</v>
       </c>
@@ -2572,17 +2758,19 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1">
+      <c r="N6" s="56"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1">
       <c r="K7" s="25"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B8" s="62" t="s">
+      <c r="N7" s="56"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B8" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="53" t="s">
         <v>33</v>
       </c>
@@ -2606,10 +2794,13 @@
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="60" t="s">
+      <c r="M8" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="N8" s="56"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="65" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -2638,10 +2829,14 @@
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="60"/>
+      <c r="M9" s="59" t="str">
+        <f>"&amp; "&amp;"\textbf{"&amp;C9&amp;"}"&amp;" &amp; "&amp;"{"&amp;D9&amp;"}"&amp;" &amp; "&amp;"{"&amp;E9&amp;"}"&amp;" &amp; "&amp;"{"&amp;F9&amp;"}"&amp;" &amp; "&amp;"{"&amp;G9&amp;"}"&amp;" &amp; "&amp;"{"&amp;H9&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Spinglass} &amp; {42} &amp; {1} &amp; {60} &amp; {88} &amp; {34}\\</v>
+      </c>
+      <c r="N9" s="56"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="65"/>
       <c r="C10" s="16" t="s">
         <v>28</v>
       </c>
@@ -2668,10 +2863,14 @@
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B11" s="61"/>
+      <c r="M10" s="59" t="str">
+        <f t="shared" ref="M10:M17" si="0">"&amp; "&amp;"\textbf{"&amp;C10&amp;"}"&amp;" &amp; "&amp;"{"&amp;D10&amp;"}"&amp;" &amp; "&amp;"{"&amp;E10&amp;"}"&amp;" &amp; "&amp;"{"&amp;F10&amp;"}"&amp;" &amp; "&amp;"{"&amp;G10&amp;"}"&amp;" &amp; "&amp;"{"&amp;H10&amp;"}"&amp;"\\"</f>
+        <v>&amp; \textbf{Louvain} &amp; {40} &amp; {34} &amp; {59} &amp; {92} &amp; {-}\\</v>
+      </c>
+      <c r="N10" s="56"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B11" s="66"/>
       <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
@@ -2698,10 +2897,14 @@
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="59" t="s">
+      <c r="M11" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {112} &amp; {12} &amp; {101} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="N11" s="56"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="64" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2730,10 +2933,14 @@
       </c>
       <c r="K12" s="25"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="60"/>
+      <c r="M12" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {66} &amp; {30} &amp; {68} &amp; {17} &amp; {1}\\</v>
+      </c>
+      <c r="N12" s="56"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="65"/>
       <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
@@ -2760,10 +2967,14 @@
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-    </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B14" s="61"/>
+      <c r="M13" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {16} &amp; {59} &amp; {17} &amp; {56} &amp; {24}\\</v>
+      </c>
+      <c r="N13" s="56"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B14" s="66"/>
       <c r="C14" s="18" t="s">
         <v>32</v>
       </c>
@@ -2790,10 +3001,14 @@
       </c>
       <c r="K14" s="25"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="57" t="s">
+      <c r="M14" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {15} &amp; {87} &amp; {17} &amp; {67} &amp; {39}\\</v>
+      </c>
+      <c r="N14" s="56"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="62" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2822,10 +3037,14 @@
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="58"/>
+      <c r="M15" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Spinglass} &amp; {1} &amp; {34} &amp; {46} &amp; {58} &amp; {86}\\</v>
+      </c>
+      <c r="N15" s="56"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="63"/>
       <c r="C16" s="16" t="s">
         <v>28</v>
       </c>
@@ -2852,10 +3071,14 @@
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
+      <c r="M16" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Louvain} &amp; {39} &amp; {62} &amp; {15} &amp; {109} &amp; {-}\\</v>
+      </c>
+      <c r="N16" s="56"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="B17" s="58"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="16" t="s">
         <v>32</v>
       </c>
@@ -2882,7 +3105,11 @@
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="M17" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp; \textbf{Fast Greedy} &amp; {92} &amp; {40} &amp; {93} &amp; {-} &amp; {-}\\</v>
+      </c>
+      <c r="N17" s="56"/>
     </row>
     <row r="18" spans="1:14">
       <c r="B18" s="30"/>
@@ -2897,6 +3124,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
+      <c r="N18" s="56"/>
     </row>
     <row r="19" spans="1:14" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A19" s="9"/>
@@ -2910,6 +3138,9 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="26"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="57"/>
     </row>
     <row r="20" spans="1:14">
       <c r="L20" s="28"/>
@@ -2935,7 +3166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
@@ -2966,41 +3197,41 @@
       <c r="AC2" s="25"/>
     </row>
     <row r="3" spans="2:29">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="F3" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="J3" s="64" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="J3" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="N3" s="64" t="s">
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="N3" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="R3" s="64" t="s">
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="R3" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="V3" s="64" t="s">
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="V3" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Z3" s="64" t="s">
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Z3" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
       <c r="AC3" s="25"/>
     </row>
     <row r="4" spans="2:29">
@@ -5420,31 +5651,31 @@
       <c r="AC95" s="25"/>
     </row>
     <row r="96" spans="1:30">
-      <c r="B96" s="64" t="s">
+      <c r="B96" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="64"/>
-      <c r="F96" s="64" t="s">
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="F96" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="J96" s="64" t="s">
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
+      <c r="J96" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="K96" s="64"/>
-      <c r="L96" s="64"/>
-      <c r="N96" s="64" t="s">
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="N96" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="O96" s="64"/>
-      <c r="P96" s="64"/>
-      <c r="R96" s="64" t="s">
+      <c r="O96" s="69"/>
+      <c r="P96" s="69"/>
+      <c r="R96" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="S96" s="64"/>
-      <c r="T96" s="64"/>
+      <c r="S96" s="69"/>
+      <c r="T96" s="69"/>
       <c r="AC96" s="25"/>
     </row>
     <row r="97" spans="2:29">
